--- a/xls/14048-108-250003435_1.xlsx
+++ b/xls/14048-108-250003435_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,26 @@
           <t>Balance</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Coverage (raw)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MatchScore</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Matched</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IHA4001YC</t>
+          <t>IHA4001YC_13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -484,22 +499,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ค่าห้องผู้ป่วยปกติ ค่าอาหาร และค่าบริการในโรงพยาบาล</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10,000.00 Per Day / 90 Day Per Disability</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4,964,668.30 Per Year</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>ค่าห้องผู้ป่วยปกติ ค่าอาหาร และค่าบริการในโรง พยาบาล</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10,000.00 Per Day / 90 Day Per Disability</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4,964,668.30 Per Year</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -513,22 +543,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>ค่าห้องผู้ป่วย ICU ค่าอาหาร และค่าบริการในโรงพยาบาล</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20,000.00 Per Day / 15 Day Per Disability</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>ค่าห้องผู้ป่วย ICU ค่าอาหาร และค่าบริการในโรง พยาบาล</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20,000.00 Per Day / 15 Day Per Disability</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -560,6 +605,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -571,22 +631,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>ค่าแพทย์ที่ปรึกษาพิเศษ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>ค่าแพทย์ที่ปรึกษา</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -600,22 +675,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>ค่าบริการทางการแพทย์เพื่อการบำบัดรักษา ค่าบริการโลหิตและส่วนประกอบของโลหิต และค่าบริการทางการพยาบาล</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>ค่าบริการทางการแพทย์เพื่อการบำบัดรักษา ค่าบริการ โลหิตและส่วนประกอบของโลหิต และค่าบริการทางการ พยาบาล</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -629,22 +719,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าเวชภัณฑ์</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าวเชกกันท์</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -658,22 +763,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>ค่ายาและค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1 ) สำหรับกลับ บ้าน</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -705,6 +825,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ค่าแพทย์ตรวจรักษา</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -716,22 +851,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>ค่าห้องผ่าตัด และค่าห้องทำหัตถการ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>200,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>ค่าห้องผ้าตัด และค่าห้องทำหัตถการ</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>200,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -745,22 +895,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าตัดและหัตถการ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>200,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>ค่ายา ค่าสาธารณางทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าตัดและหัตถการ</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>200,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -792,6 +957,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ค่าแพทย์ผ่าตัดและหัตถการ</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -803,22 +983,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>ค่าแพทย์ที่ปรึกษา กรณีผ่าตัด (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>ค่าแพทย์ที่ปรึกษา กรณีผ่าตัด</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -850,6 +1045,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ค่าวิสัญญูแพทย์</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -879,6 +1089,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ค่าห้องผ่าตัด และค่าห้องทำหัตถการ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -890,22 +1115,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าาตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>200,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>ค่ายา ค่าสาธารณางทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>200,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -937,6 +1177,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ค่าแพทย์ผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -966,6 +1221,21 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ค่าแพทย์ที่ปรึกษา กรณีผ่าตัด (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -995,18 +1265,33 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ค่าวิสัญญูแพทย์ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์</t>
+          <t>ค่าผ่าตัดใหญ่ (Day Surgery)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1022,6 +1307,21 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ค่าผ่าตัดใหญ่ (Day Surgery)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1030,12 +1330,12 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิฉัยก่อนและหลังจากการรักษาเป็นผู้ป่วยใน</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1045,12 +1345,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>200,000.00 Per Disability</t>
+          <t>150,000.00 Per Disability</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัยก่อนและ หลังจากการรักษาเป็นผู้ป่วยไข้</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1374,12 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ค่าผ่าตัดใหญ่ (Day Surgery)</t>
+          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วยใน (ไม่รวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1074,12 +1389,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>200,000.00 Per Disability</t>
+          <t>150,000.00 Per Disability</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วย ใน (ไม่วรวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1088,12 +1418,12 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัยก่อนและ หลังจากการรักษาเป็นผู้ป่วยไข้</t>
+          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1103,12 +1433,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>150,000.00 Per Disability</t>
+          <t>40,000.00 Per Disability</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1462,12 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วย ใน (ไม่วรวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
+          <t>ค่าเวชศาสตร์ฟื้นฟู หลังการเข้าพักรักษาตัวเป็นผู้ป่วยใน</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1138,6 +1483,21 @@
       <c r="G24" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ค่าวชศสตร์ฟื้นผู้ หลังการเข้ารับการต่อเป็นผู้ป่วยไข้</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1506,12 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
+          <t>ค่าบริการทางการแพทย์เพื่อล้างไตผ่านทางเส้นเลือด</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1161,12 +1521,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>40,000.00 Per Disability</t>
+          <t>10,000.00 Per Year</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ค่าบริการทางการแพทย์เพื่อสำอางใดผ่านทางเด้นเลือด</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1175,12 +1550,12 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ค่าวชศสตร์ฟื้นผู้ หลังการเข้ารับการต่อเป็นผู้ป่วยไข้</t>
+          <t>ค่าบริการทางการแพทย์ โดยรังสีรักษา เวชศาสตร์นิวเคลียร์</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1190,12 +1565,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>150,000.00 Per Disability</t>
+          <t>10,000.00 Per Year</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ค่าบริการทางการแพทย์ โดยรังสีรักษา เวชศาสตร์ มิโนคลีทร์</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1594,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์เพื่อสำอางใดผ่านทางเด้นเลือด</t>
+          <t>ค่าบริการทางการแพทย์โดยเคมีบำบัด</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1225,6 +1615,21 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1638,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์ โดยรังสีรักษา เวชศาสตร์ มิโนคลีทร์</t>
+          <t>ค่าบริการรถพยาบาล</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1248,12 +1653,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10,000.00 Per Year</t>
+          <t>4,000.00 Per Disability</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ค่าบริการรถพยาบาล</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1682,12 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
+          <t>ค่ารักษาพยาบาล โดยการผ่าตัดเล็ก (Minor Surgery)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1277,7 +1697,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10,000.00 Per Year</t>
+          <t>200,000.00 Per Disability</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1285,62 +1705,19 @@
           <t>nan</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ค่าบริการรถพยาบาล</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ค่ารักษาพยาบาล โดยการผ่าตัดเล็ก (Minor Surgery)</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>200,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>

--- a/xls/14048-108-250003435_1.xlsx
+++ b/xls/14048-108-250003435_1.xlsx
@@ -491,7 +491,11 @@
           <t>IHA4001YC_13</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14048-108-250003435</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>1</t>
@@ -983,7 +987,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ค่าแพทย์ที่ปรึกษา กรณีผ่าตัด (เปลี่ยนอวัยวะ)</t>
+          <t>ค่าแพทย์ที่ปรึกษา กรณีผ่าตัด</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1008,7 +1012,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1047,12 +1051,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์</t>
+          <t>ค่าวิสัญญีแพทย์</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1267,12 +1271,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่าวิสัญญีแพทย์ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">

--- a/xls/14048-108-250003435_1.xlsx
+++ b/xls/14048-108-250003435_1.xlsx
@@ -491,11 +491,7 @@
           <t>IHA4001YC_13</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14048-108-250003435</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>1</t>

--- a/xls/14048-108-250003435_1.xlsx
+++ b/xls/14048-108-250003435_1.xlsx
@@ -783,12 +783,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1 ) สำหรับกลับ บ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์โดยเคมีบำบัด</t>
+          <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">

--- a/xls/14048-108-250003435_1.xlsx
+++ b/xls/14048-108-250003435_1.xlsx
@@ -491,7 +491,11 @@
           <t>IHA4001YC_13</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14048-108-250003435</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>1</t>
@@ -631,7 +635,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ค่าแพทย์ที่ปรึกษาพิเศษ</t>
+          <t>ค่าแพทย์ที่ปรึกษา</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -656,7 +660,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -763,7 +767,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ค่ายาและค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับบ้าน</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +787,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
+          <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1 ) สำหรับกลับ บ้าน</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1047,12 +1051,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญีแพทย์</t>
+          <t>ค่าวิสัญญูแพทย์</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1115,7 +1119,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าาตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่าอุปกรณ์การผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1267,12 +1271,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญีแพทย์ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่าวิสัญญูแพทย์ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1379,7 +1383,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วยใน (ไม่รวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
+          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วย ใน (ไม่วรวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1409,7 +1413,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/xls/14048-108-250003435_1.xlsx
+++ b/xls/14048-108-250003435_1.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Member Co-Pay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Insured Co-Pay" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,7 +509,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,20 +527,24 @@
           <t>ค่าห้องผู้ป่วยปกติ ค่าอาหาร และค่าบริการในโรง พยาบาล</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I2" t="n">
+        <v>99</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>2</t>
@@ -552,7 +557,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -562,7 +567,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -570,20 +575,24 @@
           <t>ค่าห้องผู้ป่วย ICU ค่าอาหาร และค่าบริการในโรง พยาบาล</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I3" t="n">
+        <v>99</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>3</t>
@@ -596,7 +605,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,7 +615,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -614,20 +623,24 @@
           <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>4</t>
@@ -640,7 +653,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -650,7 +663,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -658,20 +671,24 @@
           <t>ค่าแพทย์ที่ปรึกษา</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>5</t>
@@ -684,7 +701,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -694,7 +711,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -702,20 +719,24 @@
           <t>ค่าบริการทางการแพทย์เพื่อการบำบัดรักษา ค่าบริการ โลหิตและส่วนประกอบของโลหิต และค่าบริการทางการ พยาบาล</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I6" t="n">
+        <v>99</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>6</t>
@@ -728,7 +749,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -738,7 +759,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -746,20 +767,24 @@
           <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าวเชกกันท์</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I7" t="n">
+        <v>89</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>7</t>
@@ -772,7 +797,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -782,7 +807,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -790,20 +815,24 @@
           <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1 ) สำหรับกลับ บ้าน</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I8" t="n">
+        <v>98</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>8</t>
@@ -816,7 +845,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -826,7 +855,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -834,20 +863,24 @@
           <t>ค่าแพทย์ตรวจรักษา</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>9</t>
@@ -860,7 +893,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -870,7 +903,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -878,20 +911,24 @@
           <t>ค่าห้องผ้าตัด และค่าห้องทำหัตถการ</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I10" t="n">
+        <v>96</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>10</t>
@@ -904,7 +941,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -914,7 +951,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -922,20 +959,24 @@
           <t>ค่ายา ค่าสาธารณางทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าตัดและหัตถการ</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I11" t="n">
+        <v>92</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>11</t>
@@ -948,7 +989,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -958,7 +999,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -966,20 +1007,24 @@
           <t>ค่าแพทย์ผ่าตัดและหัตถการ</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I12" t="n">
+        <v>100</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>12</t>
@@ -992,7 +1037,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1002,7 +1047,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1010,20 +1055,24 @@
           <t>ค่าแพทย์ที่ปรึกษา กรณีผ่าตัด</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>13</t>
@@ -1036,7 +1085,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1046,28 +1095,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+          <t>ค่าวิสัญญีแพทย์</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>14</t>
@@ -1080,7 +1133,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1090,7 +1143,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1098,20 +1151,24 @@
           <t>ค่าห้องผ่าตัด และค่าห้องทำหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I15" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>15</t>
@@ -1124,7 +1181,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1134,7 +1191,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1142,20 +1199,24 @@
           <t>ค่ายา ค่าสาธารณางทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การฆ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I16" t="n">
+        <v>93</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>16</t>
@@ -1168,7 +1229,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1178,7 +1239,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1186,20 +1247,24 @@
           <t>ค่าแพทย์ผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I17" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>17</t>
@@ -1212,7 +1277,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1222,7 +1287,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1230,20 +1295,24 @@
           <t>ค่าแพทย์ที่ปรึกษา กรณีผ่าตัด (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>18</t>
@@ -1256,7 +1325,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1266,28 +1335,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์ (เปลี่ยนอวัยวะ)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+          <t>ค่าวิสัญญีแพทย์ (เปลี่ยนอวัยวะ)</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>19</t>
@@ -1300,7 +1373,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1310,7 +1383,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1318,20 +1391,24 @@
           <t>ค่าผ่าตัดใหญ่ (Day Surgery)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I20" t="n">
+        <v>100</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>20</t>
@@ -1344,7 +1421,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1354,7 +1431,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1362,20 +1439,24 @@
           <t>ค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัยก่อนและ หลังจากการรักษาเป็นผู้ป่วยไข้</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I21" t="n">
+        <v>95</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>21</t>
@@ -1383,110 +1464,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วยใน (ไม่รวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>150,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วย ใน (ไม่วรวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="n">
+        <v>99</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>40,000.00 Per Disability</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ค่าเวชศาสตร์ฟื้นฟู หลังการเข้าพักรักษาตัวเป็นผู้ป่วยใน</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>150,000.00 Per Disability</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ค่ารักษาพยาบาลผู้ป่วยนอกหลังจากการรักษาเป็นผู้ป่วย ใน (ไม่วรวมค่าบริการทางการแพทย์เพื่อการตรวจวินิจฉัย)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>40,000.00 Per Disability</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ค่าเวชศาสตร์ฟื้นฟู หลังการเข้าพักรักษาตัวเป็นผู้ป่วยใน</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>150,000.00 Per Disability</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1494,20 +1583,24 @@
           <t>ค่าวชศสตร์ฟื้นผู้ หลังการเข้ารับการต่อเป็นผู้ป่วยไข้</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>24</t>
@@ -1520,7 +1613,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1530,7 +1623,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1538,20 +1631,24 @@
           <t>ค่าบริการทางการแพทย์เพื่อสำอางใดผ่านทางเด้นเลือด</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I25" t="n">
+        <v>88</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>25</t>
@@ -1564,7 +1661,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1574,7 +1671,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1582,20 +1679,24 @@
           <t>ค่าบริการทางการแพทย์ โดยรังสีรักษา เวชศาสตร์ มิโนคลีทร์</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I26" t="n">
+        <v>91</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>26</t>
@@ -1608,7 +1709,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1618,7 +1719,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1626,20 +1727,24 @@
           <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I27" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>27</t>
@@ -1652,7 +1757,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1662,7 +1767,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1670,20 +1775,24 @@
           <t>ค่าบริการรถพยาบาล</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="I28" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>28</t>
@@ -1696,7 +1805,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1706,7 +1815,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1714,14 +1823,81 @@
           <t>ค่ารักษาพยาบาล โดยการผ่าตัดเล็ก (Minor Surgery)</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Policy No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Card No</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Insured Co-Pay</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Limit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Coverage (raw)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MatchScore</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
     </row>
